--- a/results/outputs/Patient_1_Electrode_6_anchor_0_arrayPos_0.2.xlsx
+++ b/results/outputs/Patient_1_Electrode_6_anchor_0_arrayPos_0.2.xlsx
@@ -13,7 +13,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>Electrodos</t>
+  </si>
+  <si>
+    <t>Intensidad</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Opt</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>NRT_real</t>
+  </si>
+  <si>
+    <t>NRT_sim</t>
+  </si>
+  <si>
+    <t>Trained</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
   <si>
     <t>Electrodos</t>
   </si>
@@ -543,7 +813,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -568,11 +838,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -591,6 +870,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,34 +905,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -667,7 +955,7 @@
         <v>4.0639999999999997e-05</v>
       </c>
       <c r="G2" s="0">
-        <v>3.6940698994891911e-05</v>
+        <v>3.201416436410024e-05</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
@@ -699,7 +987,7 @@
         <v>5.1569999999999996e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>4.4447568224434841e-05</v>
+        <v>3.9126452008719819e-05</v>
       </c>
       <c r="H3" s="0">
         <v>1</v>
@@ -731,7 +1019,7 @@
         <v>6.0449999999999999e-05</v>
       </c>
       <c r="G4" s="0">
-        <v>5.6708905728263128e-05</v>
+        <v>5.2124463668742809e-05</v>
       </c>
       <c r="H4" s="0">
         <v>1</v>
@@ -763,7 +1051,7 @@
         <v>8.7430000000000008e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>7.853957442282223e-05</v>
+        <v>7.2994806837525881e-05</v>
       </c>
       <c r="H5" s="0">
         <v>1</v>
@@ -827,7 +1115,7 @@
         <v>7.6500000000000003e-05</v>
       </c>
       <c r="G7" s="0">
-        <v>7.8545838821580136e-05</v>
+        <v>7.2997933835142317e-05</v>
       </c>
       <c r="H7" s="0">
         <v>1</v>
@@ -859,7 +1147,7 @@
         <v>5.2249999999999996e-05</v>
       </c>
       <c r="G8" s="0">
-        <v>5.671145850746687e-05</v>
+        <v>5.2125737938595978e-05</v>
       </c>
       <c r="H8" s="0">
         <v>1</v>
@@ -891,7 +1179,7 @@
         <v>3.8929999999999995e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>4.4448083860211369e-05</v>
+        <v>3.9126709398440142e-05</v>
       </c>
       <c r="H9" s="0">
         <v>1</v>
@@ -923,7 +1211,7 @@
         <v>2.8e-05</v>
       </c>
       <c r="G10" s="0">
-        <v>3.694172625144334e-05</v>
+        <v>3.2014677139373973e-05</v>
       </c>
       <c r="H10" s="0">
         <v>1</v>
@@ -955,7 +1243,7 @@
         <v>8.387999999999999e-05</v>
       </c>
       <c r="G11" s="0">
-        <v>8.3617311244643769e-05</v>
+        <v>7.7181758543531974e-05</v>
       </c>
       <c r="H11" s="0">
         <v>1</v>
@@ -987,7 +1275,7 @@
         <v>0.00010484999999999999</v>
       </c>
       <c r="G12" s="0">
-        <v>0.00010064563422734067</v>
+        <v>9.5574191170332226e-05</v>
       </c>
       <c r="H12" s="0">
         <v>1</v>
@@ -1019,7 +1307,7 @@
         <v>0.0001349</v>
       </c>
       <c r="G13" s="0">
-        <v>0.00012817997753582569</v>
+        <v>0.00012786539008497131</v>
       </c>
       <c r="H13" s="0">
         <v>1</v>
@@ -1051,7 +1339,7 @@
         <v>0.00017280999999999999</v>
       </c>
       <c r="G14" s="0">
-        <v>0.00017428045902550789</v>
+        <v>0.00016621126529208576</v>
       </c>
       <c r="H14" s="0">
         <v>1</v>
@@ -1115,7 +1403,7 @@
         <v>0.00017793999999999999</v>
       </c>
       <c r="G16" s="0">
-        <v>0.00017429182686301697</v>
+        <v>0.00016621644122274731</v>
       </c>
       <c r="H16" s="0">
         <v>1</v>
@@ -1147,7 +1435,7 @@
         <v>0.00012465999999999999</v>
       </c>
       <c r="G17" s="0">
-        <v>0.00012818460999622708</v>
+        <v>0.00012786749930704722</v>
       </c>
       <c r="H17" s="0">
         <v>1</v>
@@ -1179,7 +1467,7 @@
         <v>9.0499999999999991e-05</v>
       </c>
       <c r="G18" s="0">
-        <v>0.00010064656993784506</v>
+        <v>9.5574617212020971e-05</v>
       </c>
       <c r="H18" s="0">
         <v>1</v>
@@ -1211,7 +1499,7 @@
         <v>6.6599999999999993e-05</v>
       </c>
       <c r="G19" s="0">
-        <v>8.3619175379736084e-05</v>
+        <v>7.7182607309532898e-05</v>
       </c>
       <c r="H19" s="0">
         <v>1</v>
@@ -1243,7 +1531,7 @@
         <v>0.00014548999999999999</v>
       </c>
       <c r="G20" s="0">
-        <v>0.00012674032613323887</v>
+        <v>0.00012648839728509316</v>
       </c>
       <c r="H20" s="0">
         <v>1</v>
@@ -1275,7 +1563,7 @@
         <v>0.00016837999999999998</v>
       </c>
       <c r="G21" s="0">
-        <v>0.00015253382968339515</v>
+        <v>0.00015853589524257158</v>
       </c>
       <c r="H21" s="0">
         <v>1</v>
@@ -1307,7 +1595,7 @@
         <v>0.00020730999999999999</v>
       </c>
       <c r="G22" s="0">
-        <v>0.00019343650535588112</v>
+        <v>0.00020716876654106026</v>
       </c>
       <c r="H22" s="0">
         <v>1</v>
@@ -1339,7 +1627,7 @@
         <v>0.00023940999999999999</v>
       </c>
       <c r="G23" s="0">
-        <v>0.00025577584634190657</v>
+        <v>0.00024396692562178769</v>
       </c>
       <c r="H23" s="0">
         <v>1</v>
@@ -1403,7 +1691,7 @@
         <v>0.00025273</v>
       </c>
       <c r="G25" s="0">
-        <v>0.00025578887103440477</v>
+        <v>0.00024397251175615605</v>
       </c>
       <c r="H25" s="0">
         <v>1</v>
@@ -1435,7 +1723,7 @@
         <v>0.00019569999999999999</v>
       </c>
       <c r="G26" s="0">
-        <v>0.00019344181299439994</v>
+        <v>0.00020717104292355064</v>
       </c>
       <c r="H26" s="0">
         <v>1</v>
@@ -1467,7 +1755,7 @@
         <v>0.00014788</v>
       </c>
       <c r="G27" s="0">
-        <v>0.00015253490177310239</v>
+        <v>0.0001585363550489862</v>
       </c>
       <c r="H27" s="0">
         <v>1</v>
@@ -1499,7 +1787,7 @@
         <v>0.00010724</v>
       </c>
       <c r="G28" s="0">
-        <v>0.00012674246196481921</v>
+        <v>0.00012648931331763657</v>
       </c>
       <c r="H28" s="0">
         <v>1</v>
